--- a/data/pca/factorExposure/factorExposure_2009-03-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01743212903694396</v>
+        <v>0.01688486158518053</v>
       </c>
       <c r="C2">
-        <v>-0.002213321575337053</v>
+        <v>0.00163372722877856</v>
       </c>
       <c r="D2">
-        <v>0.007217089556499807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007993586353228062</v>
+      </c>
+      <c r="E2">
+        <v>0.003853726383584525</v>
+      </c>
+      <c r="F2">
+        <v>0.01936438055199997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0848738832498893</v>
+        <v>0.08803571374829387</v>
       </c>
       <c r="C4">
-        <v>-0.0196036701848382</v>
+        <v>0.01556283203523613</v>
       </c>
       <c r="D4">
-        <v>0.08234410758092228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08518558464230075</v>
+      </c>
+      <c r="E4">
+        <v>0.03681411445467236</v>
+      </c>
+      <c r="F4">
+        <v>-0.04608500568209932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006309889973271085</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.667642082472673e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002977654705801315</v>
+      </c>
+      <c r="E5">
+        <v>-0.0001172544671039254</v>
+      </c>
+      <c r="F5">
+        <v>-3.965923448112007e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.160427318232302</v>
+        <v>0.1660000305336488</v>
       </c>
       <c r="C6">
-        <v>-0.03718628010053825</v>
+        <v>0.03510528518539743</v>
       </c>
       <c r="D6">
-        <v>-0.02455842886930377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01517526683038791</v>
+      </c>
+      <c r="E6">
+        <v>0.02029970382269303</v>
+      </c>
+      <c r="F6">
+        <v>-0.05558963806778463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05482716920894979</v>
+        <v>0.05972931770807589</v>
       </c>
       <c r="C7">
-        <v>-0.001448755530063271</v>
+        <v>-0.001348262188412066</v>
       </c>
       <c r="D7">
-        <v>0.04864081488453806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0536543849204606</v>
+      </c>
+      <c r="E7">
+        <v>0.01333168861408844</v>
+      </c>
+      <c r="F7">
+        <v>-0.05499445086998287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05731314079895389</v>
+        <v>0.05454783029792935</v>
       </c>
       <c r="C8">
-        <v>0.009791272971381972</v>
+        <v>-0.01122546868048115</v>
       </c>
       <c r="D8">
-        <v>0.02855182299868039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03095192742234733</v>
+      </c>
+      <c r="E8">
+        <v>0.0146524294403959</v>
+      </c>
+      <c r="F8">
+        <v>0.03442954294800799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06610567054575567</v>
+        <v>0.06912851816345401</v>
       </c>
       <c r="C9">
-        <v>-0.01512126770772788</v>
+        <v>0.01114185766079872</v>
       </c>
       <c r="D9">
-        <v>0.0879710281095077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09068273396899421</v>
+      </c>
+      <c r="E9">
+        <v>0.02952882785457981</v>
+      </c>
+      <c r="F9">
+        <v>-0.06434665841213526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09333079934154552</v>
+        <v>0.09031006845199313</v>
       </c>
       <c r="C10">
-        <v>-0.02339788723315089</v>
+        <v>0.02515446074816934</v>
       </c>
       <c r="D10">
-        <v>-0.1622589253217271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1529513480219818</v>
+      </c>
+      <c r="E10">
+        <v>-0.03990075556810584</v>
+      </c>
+      <c r="F10">
+        <v>0.07617163979959581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08651240096245745</v>
+        <v>0.08413920276414759</v>
       </c>
       <c r="C11">
-        <v>-0.01705117932430019</v>
+        <v>0.01227577290737243</v>
       </c>
       <c r="D11">
-        <v>0.1251088905914122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1285425459325462</v>
+      </c>
+      <c r="E11">
+        <v>0.057537870338742</v>
+      </c>
+      <c r="F11">
+        <v>-0.01956291920213651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09143184245153418</v>
+        <v>0.08690213457239458</v>
       </c>
       <c r="C12">
-        <v>-0.0150243150651156</v>
+        <v>0.009668099918519402</v>
       </c>
       <c r="D12">
-        <v>0.1303687248380863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1416035085328469</v>
+      </c>
+      <c r="E12">
+        <v>0.06007692167946864</v>
+      </c>
+      <c r="F12">
+        <v>-0.02202372946315607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04399802490656216</v>
+        <v>0.04452490618625989</v>
       </c>
       <c r="C13">
-        <v>-0.007660625208250857</v>
+        <v>0.003889673464578419</v>
       </c>
       <c r="D13">
-        <v>0.05180133377283202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05969502306388747</v>
+      </c>
+      <c r="E13">
+        <v>-0.003757367590915128</v>
+      </c>
+      <c r="F13">
+        <v>-0.01241522332638175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01951464128112597</v>
+        <v>0.02228528367536367</v>
       </c>
       <c r="C14">
-        <v>-0.01496185238047629</v>
+        <v>0.01389841002707881</v>
       </c>
       <c r="D14">
-        <v>0.03651004581083099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03978079145369689</v>
+      </c>
+      <c r="E14">
+        <v>0.02497723680873956</v>
+      </c>
+      <c r="F14">
+        <v>-0.02439226611495839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03369155985169122</v>
+        <v>0.03470004713929029</v>
       </c>
       <c r="C15">
-        <v>-0.008206252463988465</v>
+        <v>0.006555326115250357</v>
       </c>
       <c r="D15">
-        <v>0.05408984892004866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05381937557964543</v>
+      </c>
+      <c r="E15">
+        <v>0.01225241098819581</v>
+      </c>
+      <c r="F15">
+        <v>-0.02822316404587316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06722202926044916</v>
+        <v>0.06668022712952049</v>
       </c>
       <c r="C16">
-        <v>-0.005588915507622993</v>
+        <v>0.0009818882600414738</v>
       </c>
       <c r="D16">
-        <v>0.125444094964037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1355773400626661</v>
+      </c>
+      <c r="E16">
+        <v>0.06823565717596865</v>
+      </c>
+      <c r="F16">
+        <v>-0.02162136366394495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002508542069683222</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.00111356856201943</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00215776839724272</v>
+      </c>
+      <c r="E17">
+        <v>0.005456041678605279</v>
+      </c>
+      <c r="F17">
+        <v>0.004192328098934053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03004172173018236</v>
+        <v>0.04650657718220105</v>
       </c>
       <c r="C18">
-        <v>0.0002572111959256861</v>
+        <v>0.0001859341955383282</v>
       </c>
       <c r="D18">
-        <v>0.02495349377700227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02335275506982806</v>
+      </c>
+      <c r="E18">
+        <v>-0.002258243590515971</v>
+      </c>
+      <c r="F18">
+        <v>0.01521320667302725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06193054409920916</v>
+        <v>0.0614260636932139</v>
       </c>
       <c r="C20">
-        <v>-0.004993214363416602</v>
+        <v>0.002265656733748204</v>
       </c>
       <c r="D20">
-        <v>0.08366397548717008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08662529435370339</v>
+      </c>
+      <c r="E20">
+        <v>0.0629062165843719</v>
+      </c>
+      <c r="F20">
+        <v>-0.03818727130197887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03966140814510945</v>
+        <v>0.04187992667249055</v>
       </c>
       <c r="C21">
-        <v>-0.009898950032837929</v>
+        <v>0.007403625304576996</v>
       </c>
       <c r="D21">
-        <v>0.04371171270195361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04313637709372124</v>
+      </c>
+      <c r="E21">
+        <v>0.0005900410803378072</v>
+      </c>
+      <c r="F21">
+        <v>0.01348460322541003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04523129014759938</v>
+        <v>0.04434429959991882</v>
       </c>
       <c r="C22">
-        <v>-0.004540639981746943</v>
+        <v>0.002597154001329595</v>
       </c>
       <c r="D22">
-        <v>0.002511128003776597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01353907346092408</v>
+      </c>
+      <c r="E22">
+        <v>0.03761708212799572</v>
+      </c>
+      <c r="F22">
+        <v>0.1033756021758235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0452400220214494</v>
+        <v>0.04435175374985532</v>
       </c>
       <c r="C23">
-        <v>-0.004543052047225524</v>
+        <v>0.002599411516707003</v>
       </c>
       <c r="D23">
-        <v>0.002502281420524063</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01353226406826161</v>
+      </c>
+      <c r="E23">
+        <v>0.03762613385696219</v>
+      </c>
+      <c r="F23">
+        <v>0.1034168921415029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07537448133402139</v>
+        <v>0.07355917132144689</v>
       </c>
       <c r="C24">
-        <v>-0.00673306634923092</v>
+        <v>0.00229779401962282</v>
       </c>
       <c r="D24">
-        <v>0.1278654275620089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1297626735806731</v>
+      </c>
+      <c r="E24">
+        <v>0.05340942250742226</v>
+      </c>
+      <c r="F24">
+        <v>-0.03022266872254391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0805754618591509</v>
+        <v>0.07817644526959569</v>
       </c>
       <c r="C25">
-        <v>-0.009413618766418316</v>
+        <v>0.005292650996958749</v>
       </c>
       <c r="D25">
-        <v>0.1162803724355776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1185199843427993</v>
+      </c>
+      <c r="E25">
+        <v>0.04299685166907281</v>
+      </c>
+      <c r="F25">
+        <v>-0.02686917627338503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05700396749622975</v>
+        <v>0.06200149044584169</v>
       </c>
       <c r="C26">
-        <v>-0.01912889223222618</v>
+        <v>0.01638898998020761</v>
       </c>
       <c r="D26">
-        <v>0.0547403248925837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06031072663965311</v>
+      </c>
+      <c r="E26">
+        <v>0.03401393327469748</v>
+      </c>
+      <c r="F26">
+        <v>0.006517059406464245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.151412345297045</v>
+        <v>0.1562105225960697</v>
       </c>
       <c r="C28">
-        <v>-0.02816632825856173</v>
+        <v>0.03176440779224785</v>
       </c>
       <c r="D28">
-        <v>-0.2447094460341262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2428221449055312</v>
+      </c>
+      <c r="E28">
+        <v>-0.061794065674167</v>
+      </c>
+      <c r="F28">
+        <v>-0.01546882562288046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02588715114054744</v>
+        <v>0.02796379200306931</v>
       </c>
       <c r="C29">
-        <v>-0.009838470769452315</v>
+        <v>0.009168244556046257</v>
       </c>
       <c r="D29">
-        <v>0.03556690432338468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0373588314339576</v>
+      </c>
+      <c r="E29">
+        <v>0.01624119102034138</v>
+      </c>
+      <c r="F29">
+        <v>0.01647375633398909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0512666505858215</v>
+        <v>0.0505531929795923</v>
       </c>
       <c r="C30">
-        <v>-0.005662273168773448</v>
+        <v>0.002171675753397292</v>
       </c>
       <c r="D30">
-        <v>0.07581906317554393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08122746353620258</v>
+      </c>
+      <c r="E30">
+        <v>0.0119415190156438</v>
+      </c>
+      <c r="F30">
+        <v>-0.1043462658162856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05128010352335849</v>
+        <v>0.0516874836713001</v>
       </c>
       <c r="C31">
-        <v>-0.01892507894967537</v>
+        <v>0.0169888252864984</v>
       </c>
       <c r="D31">
-        <v>0.02961153683677403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03158801586151413</v>
+      </c>
+      <c r="E31">
+        <v>0.03059006565461521</v>
+      </c>
+      <c r="F31">
+        <v>0.0101544354035202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04385105781737222</v>
+        <v>0.04950978243759305</v>
       </c>
       <c r="C32">
-        <v>-0.001536484307178996</v>
+        <v>-0.001149611906717466</v>
       </c>
       <c r="D32">
-        <v>0.03201938922539442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03586402961044999</v>
+      </c>
+      <c r="E32">
+        <v>0.03537456472943266</v>
+      </c>
+      <c r="F32">
+        <v>0.001426635900089745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08578513781608028</v>
+        <v>0.08754586405127547</v>
       </c>
       <c r="C33">
-        <v>-0.01340871145965224</v>
+        <v>0.00832991932278856</v>
       </c>
       <c r="D33">
-        <v>0.1004114870198349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1108429478931465</v>
+      </c>
+      <c r="E33">
+        <v>0.05657703944658048</v>
+      </c>
+      <c r="F33">
+        <v>-0.02839961699590848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06349959960774548</v>
+        <v>0.06343328931400934</v>
       </c>
       <c r="C34">
-        <v>-0.01530516134861611</v>
+        <v>0.010607617512834</v>
       </c>
       <c r="D34">
-        <v>0.1056396863419633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1167584792076417</v>
+      </c>
+      <c r="E34">
+        <v>0.04009703184124936</v>
+      </c>
+      <c r="F34">
+        <v>-0.04153909757547044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02681449145104616</v>
+        <v>0.02808997113998331</v>
       </c>
       <c r="C35">
-        <v>-0.005002424414132449</v>
+        <v>0.004399887518149495</v>
       </c>
       <c r="D35">
-        <v>0.0106669062450886</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01353035445445397</v>
+      </c>
+      <c r="E35">
+        <v>0.01850327468075561</v>
+      </c>
+      <c r="F35">
+        <v>0.001575975794269692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0228163643737308</v>
+        <v>0.02717858060916671</v>
       </c>
       <c r="C36">
-        <v>-0.008441156058832024</v>
+        <v>0.007541527371021984</v>
       </c>
       <c r="D36">
-        <v>0.04201935251027465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04510981724879638</v>
+      </c>
+      <c r="E36">
+        <v>0.02408245552601603</v>
+      </c>
+      <c r="F36">
+        <v>-0.02259590649310437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003257956628034142</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008414663430637311</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003252541946389674</v>
+      </c>
+      <c r="E37">
+        <v>0.001024812979554554</v>
+      </c>
+      <c r="F37">
+        <v>0.001439840018099327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09973849761226784</v>
+        <v>0.09158490548806845</v>
       </c>
       <c r="C39">
-        <v>-0.02131467911378129</v>
+        <v>0.01561742739775745</v>
       </c>
       <c r="D39">
-        <v>0.1614731128075742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1582210567487127</v>
+      </c>
+      <c r="E39">
+        <v>0.07026295575965143</v>
+      </c>
+      <c r="F39">
+        <v>-0.01105729074796027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0435792674463939</v>
+        <v>0.04902941358613043</v>
       </c>
       <c r="C40">
-        <v>-0.01217453844587602</v>
+        <v>0.01063214982935986</v>
       </c>
       <c r="D40">
-        <v>0.03513240093458386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0415928541616553</v>
+      </c>
+      <c r="E40">
+        <v>0.009192814547250499</v>
+      </c>
+      <c r="F40">
+        <v>0.01933767004937913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02629954665869836</v>
+        <v>0.02844241180309781</v>
       </c>
       <c r="C41">
-        <v>-0.008451580794703054</v>
+        <v>0.007989595085320178</v>
       </c>
       <c r="D41">
-        <v>0.01457997423565679</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01591879755311641</v>
+      </c>
+      <c r="E41">
+        <v>0.01157126363621121</v>
+      </c>
+      <c r="F41">
+        <v>0.01148241216986643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04018215003535042</v>
+        <v>0.03939490732034577</v>
       </c>
       <c r="C43">
-        <v>-0.009089760202738002</v>
+        <v>0.008263851982150749</v>
       </c>
       <c r="D43">
-        <v>0.02534123606327097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02532062855954812</v>
+      </c>
+      <c r="E43">
+        <v>0.0297332574249216</v>
+      </c>
+      <c r="F43">
+        <v>0.02252023113005701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06124866673518502</v>
+        <v>0.06903661675620165</v>
       </c>
       <c r="C44">
-        <v>-0.02201438761647437</v>
+        <v>0.01877749610284033</v>
       </c>
       <c r="D44">
-        <v>0.07502852935027438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08487806711568546</v>
+      </c>
+      <c r="E44">
+        <v>0.07137039899711783</v>
+      </c>
+      <c r="F44">
+        <v>-0.2185337260447548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001882545336963533</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.50134140683139e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-1.762763273689532e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004156099683336411</v>
+      </c>
+      <c r="F45">
+        <v>6.467648836177196e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02317882397897433</v>
+        <v>0.02552333980493738</v>
       </c>
       <c r="C46">
-        <v>-0.004947912339510948</v>
+        <v>0.004250551057737791</v>
       </c>
       <c r="D46">
-        <v>0.01946447722723827</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02130208143512586</v>
+      </c>
+      <c r="E46">
+        <v>0.033884697820653</v>
+      </c>
+      <c r="F46">
+        <v>0.02274609067565026</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05364312216581336</v>
+        <v>0.05253539184185051</v>
       </c>
       <c r="C47">
-        <v>-0.007366742072770557</v>
+        <v>0.005693260625066083</v>
       </c>
       <c r="D47">
-        <v>0.01499084884784289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01633617313257119</v>
+      </c>
+      <c r="E47">
+        <v>0.0263276647888724</v>
+      </c>
+      <c r="F47">
+        <v>0.04389685504939301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04945468546652998</v>
+        <v>0.0531396450748596</v>
       </c>
       <c r="C48">
-        <v>-0.00642994611735897</v>
+        <v>0.004016835246787653</v>
       </c>
       <c r="D48">
-        <v>0.06079126669800316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06148637525595325</v>
+      </c>
+      <c r="E48">
+        <v>0.006094469585610167</v>
+      </c>
+      <c r="F48">
+        <v>-0.016007769771317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1943755386501857</v>
+        <v>0.1967954892114558</v>
       </c>
       <c r="C49">
-        <v>-0.02867927059798215</v>
+        <v>0.02478183387942352</v>
       </c>
       <c r="D49">
-        <v>-0.01420492442122592</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.008556324461332528</v>
+      </c>
+      <c r="E49">
+        <v>0.01798101115790683</v>
+      </c>
+      <c r="F49">
+        <v>-0.05696585958163216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04922302395846428</v>
+        <v>0.05205184034086732</v>
       </c>
       <c r="C50">
-        <v>-0.01460546579535137</v>
+        <v>0.01313920348912489</v>
       </c>
       <c r="D50">
-        <v>0.02822816310879731</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03003814142738142</v>
+      </c>
+      <c r="E50">
+        <v>0.03276189733070495</v>
+      </c>
+      <c r="F50">
+        <v>-0.007442964463270904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1517550907653951</v>
+        <v>0.1451853736523041</v>
       </c>
       <c r="C52">
-        <v>-0.02588498370471477</v>
+        <v>0.02182726618220251</v>
       </c>
       <c r="D52">
-        <v>0.04415269566641791</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04667200076336923</v>
+      </c>
+      <c r="E52">
+        <v>0.03683281815833696</v>
+      </c>
+      <c r="F52">
+        <v>-0.03956037719582634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1750510727157367</v>
+        <v>0.1674578002449202</v>
       </c>
       <c r="C53">
-        <v>-0.02902612363806927</v>
+        <v>0.02602141282078585</v>
       </c>
       <c r="D53">
-        <v>0.003766185079127743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006820938078291365</v>
+      </c>
+      <c r="E53">
+        <v>0.04635172546222592</v>
+      </c>
+      <c r="F53">
+        <v>-0.08720070989113886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01443604054183737</v>
+        <v>0.01749299777417736</v>
       </c>
       <c r="C54">
-        <v>-0.01188441275564769</v>
+        <v>0.01107747504035556</v>
       </c>
       <c r="D54">
-        <v>0.03253818640678184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0318870208934281</v>
+      </c>
+      <c r="E54">
+        <v>0.01835970773384575</v>
+      </c>
+      <c r="F54">
+        <v>0.004332954380322848</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1200843354702066</v>
+        <v>0.1174212363370721</v>
       </c>
       <c r="C55">
-        <v>-0.02515111305805022</v>
+        <v>0.02265351173725345</v>
       </c>
       <c r="D55">
-        <v>0.007758373130608098</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01537614894800474</v>
+      </c>
+      <c r="E55">
+        <v>0.04500939137125601</v>
+      </c>
+      <c r="F55">
+        <v>-0.03193500532695609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1804121447863247</v>
+        <v>0.1744857467303839</v>
       </c>
       <c r="C56">
-        <v>-0.02716641791904374</v>
+        <v>0.0244257298955302</v>
       </c>
       <c r="D56">
-        <v>-0.004579454173669281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0008583631002914436</v>
+      </c>
+      <c r="E56">
+        <v>0.04272260660915735</v>
+      </c>
+      <c r="F56">
+        <v>-0.04433159042422935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04529358882374616</v>
+        <v>0.04470013739535711</v>
       </c>
       <c r="C58">
-        <v>-0.004242107007076681</v>
+        <v>0.0003927786677102207</v>
       </c>
       <c r="D58">
-        <v>0.08098958678467721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08788689153224136</v>
+      </c>
+      <c r="E58">
+        <v>0.04510558845061159</v>
+      </c>
+      <c r="F58">
+        <v>0.04255522491207717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1700562952273896</v>
+        <v>0.1750212202487432</v>
       </c>
       <c r="C59">
-        <v>-0.02767062120752688</v>
+        <v>0.03061692439283082</v>
       </c>
       <c r="D59">
-        <v>-0.2142795091202053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2123461791540221</v>
+      </c>
+      <c r="E59">
+        <v>-0.05349800865783715</v>
+      </c>
+      <c r="F59">
+        <v>0.06733107246156714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2238362591371686</v>
+        <v>0.2187548942920942</v>
       </c>
       <c r="C60">
-        <v>-0.00820853746407234</v>
+        <v>0.00375055128814707</v>
       </c>
       <c r="D60">
-        <v>0.01828058676132558</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01833314927798369</v>
+      </c>
+      <c r="E60">
+        <v>-0.01641383997016929</v>
+      </c>
+      <c r="F60">
+        <v>0.01277263319534872</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07374015571825562</v>
+        <v>0.06972712810952521</v>
       </c>
       <c r="C61">
-        <v>-0.01526611484024779</v>
+        <v>0.01060476982422242</v>
       </c>
       <c r="D61">
-        <v>0.1195191604301974</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1213338134765932</v>
+      </c>
+      <c r="E61">
+        <v>0.04200608205402616</v>
+      </c>
+      <c r="F61">
+        <v>0.001928073048241128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1713261764255386</v>
+        <v>0.1670456592056729</v>
       </c>
       <c r="C62">
-        <v>-0.02983505074781067</v>
+        <v>0.02676413997513571</v>
       </c>
       <c r="D62">
-        <v>0.002252754644331777</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007518841695101782</v>
+      </c>
+      <c r="E62">
+        <v>0.05136226205010656</v>
+      </c>
+      <c r="F62">
+        <v>-0.03063541003648002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04201151560811191</v>
+        <v>0.04738405570613186</v>
       </c>
       <c r="C63">
-        <v>-0.005657709474045656</v>
+        <v>0.003257074924749243</v>
       </c>
       <c r="D63">
-        <v>0.06468566177451157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0725492851088993</v>
+      </c>
+      <c r="E63">
+        <v>0.02994151691537751</v>
+      </c>
+      <c r="F63">
+        <v>0.003918418863869321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1141638736425521</v>
+        <v>0.111408253653845</v>
       </c>
       <c r="C64">
-        <v>-0.01973420913879246</v>
+        <v>0.01595097306807956</v>
       </c>
       <c r="D64">
-        <v>0.04764148596515187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05097824965963192</v>
+      </c>
+      <c r="E64">
+        <v>0.0346288198344353</v>
+      </c>
+      <c r="F64">
+        <v>-0.02580022367113986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1505480598099458</v>
+        <v>0.1561010105302602</v>
       </c>
       <c r="C65">
-        <v>-0.04309289510823679</v>
+        <v>0.04157548540861558</v>
       </c>
       <c r="D65">
-        <v>-0.04854395199863105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03745315063789552</v>
+      </c>
+      <c r="E65">
+        <v>0.01795295808338605</v>
+      </c>
+      <c r="F65">
+        <v>-0.05556887045507187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1208006697218018</v>
+        <v>0.1105934085664578</v>
       </c>
       <c r="C66">
-        <v>-0.01996170911116777</v>
+        <v>0.01377049945719705</v>
       </c>
       <c r="D66">
-        <v>0.1415955652921052</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1440234806734836</v>
+      </c>
+      <c r="E66">
+        <v>0.06504820733170602</v>
+      </c>
+      <c r="F66">
+        <v>-0.01315901293351178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05977801109217468</v>
+        <v>0.05267449322070448</v>
       </c>
       <c r="C67">
-        <v>-0.006430854213049195</v>
+        <v>0.003987312368296549</v>
       </c>
       <c r="D67">
-        <v>0.05506220802620977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05729537192463648</v>
+      </c>
+      <c r="E67">
+        <v>0.0236281286794021</v>
+      </c>
+      <c r="F67">
+        <v>0.08575907546752862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1213564178111388</v>
+        <v>0.1276235164103329</v>
       </c>
       <c r="C68">
-        <v>-0.03615596907004644</v>
+        <v>0.04096458352861484</v>
       </c>
       <c r="D68">
-        <v>-0.2496481578290291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2489783163399802</v>
+      </c>
+      <c r="E68">
+        <v>-0.09216153026080265</v>
+      </c>
+      <c r="F68">
+        <v>-0.02474573556234027</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03917017553331557</v>
+        <v>0.03868526834666911</v>
       </c>
       <c r="C69">
-        <v>-0.003414742233282136</v>
+        <v>0.002430326573083122</v>
       </c>
       <c r="D69">
-        <v>0.009543831267572507</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009892565445854092</v>
+      </c>
+      <c r="E69">
+        <v>0.03311220099774462</v>
+      </c>
+      <c r="F69">
+        <v>0.01881650329508404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07009680531001676</v>
+        <v>0.07123305929182543</v>
       </c>
       <c r="C70">
-        <v>0.02238552050978512</v>
+        <v>-0.02383859398632203</v>
       </c>
       <c r="D70">
-        <v>0.04068734482152346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03835473900878078</v>
+      </c>
+      <c r="E70">
+        <v>-0.02945775006459423</v>
+      </c>
+      <c r="F70">
+        <v>0.3697555139383997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.141489083224683</v>
+        <v>0.1487456382557804</v>
       </c>
       <c r="C71">
-        <v>-0.04202020376297068</v>
+        <v>0.04660511088314124</v>
       </c>
       <c r="D71">
-        <v>-0.2632329566211255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2580877667322179</v>
+      </c>
+      <c r="E71">
+        <v>-0.1007195611453775</v>
+      </c>
+      <c r="F71">
+        <v>-0.02458941265237615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1389272344539191</v>
+        <v>0.1451668449807548</v>
       </c>
       <c r="C72">
-        <v>-0.03362798334487852</v>
+        <v>0.03227126336600657</v>
       </c>
       <c r="D72">
-        <v>0.009052400743076491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005926146529380256</v>
+      </c>
+      <c r="E72">
+        <v>0.0480585910418208</v>
+      </c>
+      <c r="F72">
+        <v>-0.03321794695316956</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1947716014357573</v>
+        <v>0.199404452119877</v>
       </c>
       <c r="C73">
-        <v>-0.02200326598235761</v>
+        <v>0.01693157269927138</v>
       </c>
       <c r="D73">
-        <v>0.006143074019213769</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01314418035212985</v>
+      </c>
+      <c r="E73">
+        <v>0.06493201818104125</v>
+      </c>
+      <c r="F73">
+        <v>-0.0181576064195955</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08798506711013795</v>
+        <v>0.08810991512414286</v>
       </c>
       <c r="C74">
-        <v>-0.01677478965369236</v>
+        <v>0.01474057529605517</v>
       </c>
       <c r="D74">
-        <v>0.01295749511789804</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01805592914415252</v>
+      </c>
+      <c r="E74">
+        <v>0.05061568162700604</v>
+      </c>
+      <c r="F74">
+        <v>-0.05304192574689384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.128633831457335</v>
+        <v>0.121177372494954</v>
       </c>
       <c r="C75">
-        <v>-0.03496150164901982</v>
+        <v>0.03157989770633134</v>
       </c>
       <c r="D75">
-        <v>0.0272202228713882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03207833738330978</v>
+      </c>
+      <c r="E75">
+        <v>0.06259785490341656</v>
+      </c>
+      <c r="F75">
+        <v>-0.01383470224090956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07821610313783017</v>
+        <v>0.0917079702475022</v>
       </c>
       <c r="C77">
-        <v>-0.01474156742129496</v>
+        <v>0.01114839273938989</v>
       </c>
       <c r="D77">
-        <v>0.1158535449457322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1157149980673908</v>
+      </c>
+      <c r="E77">
+        <v>0.0495055920501354</v>
+      </c>
+      <c r="F77">
+        <v>-0.04576623596615122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09517326824657567</v>
+        <v>0.09745063716016475</v>
       </c>
       <c r="C78">
-        <v>-0.04334970835785215</v>
+        <v>0.04037061232563317</v>
       </c>
       <c r="D78">
-        <v>0.1239059167850054</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1201034386849445</v>
+      </c>
+      <c r="E78">
+        <v>0.07383938281871699</v>
+      </c>
+      <c r="F78">
+        <v>-0.04308175000217963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1689994241107857</v>
+        <v>0.1646175979746636</v>
       </c>
       <c r="C79">
-        <v>-0.0333302988320782</v>
+        <v>0.02976274606350027</v>
       </c>
       <c r="D79">
-        <v>0.01430378778329049</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01969714557487895</v>
+      </c>
+      <c r="E79">
+        <v>0.0495285607296556</v>
+      </c>
+      <c r="F79">
+        <v>-0.009392609403125146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07898416364681354</v>
+        <v>0.07721686249324572</v>
       </c>
       <c r="C80">
-        <v>-0.004041017609277621</v>
+        <v>0.001747949376270011</v>
       </c>
       <c r="D80">
-        <v>0.04614222701764693</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0484341835146312</v>
+      </c>
+      <c r="E80">
+        <v>0.05177645849972647</v>
+      </c>
+      <c r="F80">
+        <v>0.04672468360182876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1164438544219666</v>
+        <v>0.1104848817135239</v>
       </c>
       <c r="C81">
-        <v>-0.03670695477516994</v>
+        <v>0.03485529873145752</v>
       </c>
       <c r="D81">
-        <v>0.003952373436877414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.009470282701915</v>
+      </c>
+      <c r="E81">
+        <v>0.05876994720211849</v>
+      </c>
+      <c r="F81">
+        <v>-0.00419569809052772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1622868451729489</v>
+        <v>0.1604799535056555</v>
       </c>
       <c r="C82">
-        <v>-0.03280837874436186</v>
+        <v>0.02991464208940787</v>
       </c>
       <c r="D82">
-        <v>0.001258409160763493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.002433050633363475</v>
+      </c>
+      <c r="E82">
+        <v>0.0422058543362984</v>
+      </c>
+      <c r="F82">
+        <v>-0.0843230388626197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05682215334528627</v>
+        <v>0.05226534024855933</v>
       </c>
       <c r="C83">
-        <v>-0.006358815347268682</v>
+        <v>0.004158759545718393</v>
       </c>
       <c r="D83">
-        <v>0.04420684767078978</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04353161390800434</v>
+      </c>
+      <c r="E83">
+        <v>0.007286169616312395</v>
+      </c>
+      <c r="F83">
+        <v>0.02626424185276516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05417489102858959</v>
+        <v>0.05093881494758616</v>
       </c>
       <c r="C84">
-        <v>-0.01313248879069209</v>
+        <v>0.01057561067234705</v>
       </c>
       <c r="D84">
-        <v>0.07247608131652676</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07311541315169776</v>
+      </c>
+      <c r="E84">
+        <v>0.02002666680535107</v>
+      </c>
+      <c r="F84">
+        <v>-0.003323379588040475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.139797253916386</v>
+        <v>0.1343369671390569</v>
       </c>
       <c r="C85">
-        <v>-0.03620707581377151</v>
+        <v>0.03341294985551258</v>
       </c>
       <c r="D85">
-        <v>0.009878892897724718</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01371903430112979</v>
+      </c>
+      <c r="E85">
+        <v>0.04754445013167334</v>
+      </c>
+      <c r="F85">
+        <v>-0.05567967845943958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08214979932699197</v>
+        <v>0.0812162855295772</v>
       </c>
       <c r="C86">
-        <v>0.004314633171080016</v>
+        <v>-0.006134881608992105</v>
       </c>
       <c r="D86">
-        <v>0.02901629283246359</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05515963275565467</v>
+      </c>
+      <c r="E86">
+        <v>0.09716056902289848</v>
+      </c>
+      <c r="F86">
+        <v>0.8026778668983001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08927269288161457</v>
+        <v>0.08943647220721122</v>
       </c>
       <c r="C87">
-        <v>-0.02691309550559291</v>
+        <v>0.02238790553864921</v>
       </c>
       <c r="D87">
-        <v>0.08817271249115637</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0905349721136078</v>
+      </c>
+      <c r="E87">
+        <v>-0.07366180114598095</v>
+      </c>
+      <c r="F87">
+        <v>-0.07119655733097914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06234938726278138</v>
+        <v>0.0610579447280749</v>
       </c>
       <c r="C88">
-        <v>-0.006838390288009573</v>
+        <v>0.004471819770289135</v>
       </c>
       <c r="D88">
-        <v>0.06029147851540274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05803586344813554</v>
+      </c>
+      <c r="E88">
+        <v>0.03316520151387962</v>
+      </c>
+      <c r="F88">
+        <v>-0.004595855134269416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1291910297188986</v>
+        <v>0.134394564166269</v>
       </c>
       <c r="C89">
-        <v>-0.01612622590301108</v>
+        <v>0.02083819871843913</v>
       </c>
       <c r="D89">
-        <v>-0.2269630657918552</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2326247628225347</v>
+      </c>
+      <c r="E89">
+        <v>-0.09312134642122707</v>
+      </c>
+      <c r="F89">
+        <v>-0.01742246667012366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1528173558449342</v>
+        <v>0.1637812250395121</v>
       </c>
       <c r="C90">
-        <v>-0.03858231586195399</v>
+        <v>0.04383163113767104</v>
       </c>
       <c r="D90">
-        <v>-0.2511438839559345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2549100534691514</v>
+      </c>
+      <c r="E90">
+        <v>-0.1214356135736724</v>
+      </c>
+      <c r="F90">
+        <v>-0.01820497779298868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1255366525428752</v>
+        <v>0.1207068503642548</v>
       </c>
       <c r="C91">
-        <v>-0.02691495061485973</v>
+        <v>0.02529782639599622</v>
       </c>
       <c r="D91">
-        <v>-0.01940267399898386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01483471452884755</v>
+      </c>
+      <c r="E91">
+        <v>0.06052012403572448</v>
+      </c>
+      <c r="F91">
+        <v>0.0234572482493551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1523857378430443</v>
+        <v>0.1560984486176205</v>
       </c>
       <c r="C92">
-        <v>-0.02937275853777669</v>
+        <v>0.03420141265751273</v>
       </c>
       <c r="D92">
-        <v>-0.2794361359040952</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2837624399019454</v>
+      </c>
+      <c r="E92">
+        <v>-0.1050221905642713</v>
+      </c>
+      <c r="F92">
+        <v>-0.008153882586683788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1566319091294419</v>
+        <v>0.1658714323928035</v>
       </c>
       <c r="C93">
-        <v>-0.03426734456117794</v>
+        <v>0.03836818393256015</v>
       </c>
       <c r="D93">
-        <v>-0.2450697648402897</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2491649162505566</v>
+      </c>
+      <c r="E93">
+        <v>-0.07124349674271492</v>
+      </c>
+      <c r="F93">
+        <v>-0.01753277239057597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1269500159773592</v>
+        <v>0.1199155070688951</v>
       </c>
       <c r="C94">
-        <v>-0.03054524250353742</v>
+        <v>0.02681640000650172</v>
       </c>
       <c r="D94">
-        <v>0.04123750257672441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04454188917986728</v>
+      </c>
+      <c r="E94">
+        <v>0.05981572997823484</v>
+      </c>
+      <c r="F94">
+        <v>-0.01107656812118039</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266515823298797</v>
+        <v>0.128840699298224</v>
       </c>
       <c r="C95">
-        <v>-0.01308142558212063</v>
+        <v>0.00778925782215403</v>
       </c>
       <c r="D95">
-        <v>0.09750748523065565</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1077060566246575</v>
+      </c>
+      <c r="E95">
+        <v>0.06711678521018825</v>
+      </c>
+      <c r="F95">
+        <v>0.01676409376856139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1627499121454433</v>
+        <v>0.1466736905563329</v>
       </c>
       <c r="C96">
-        <v>0.9808102814067676</v>
+        <v>-0.9823376313099796</v>
       </c>
       <c r="D96">
-        <v>-0.03658606972078202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.0570432140576362</v>
+      </c>
+      <c r="E96">
+        <v>0.04824458973767137</v>
+      </c>
+      <c r="F96">
+        <v>-0.04408486676240249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1917559913546155</v>
+        <v>0.1941252916962451</v>
       </c>
       <c r="C97">
-        <v>-0.00511210714203904</v>
+        <v>0.001075826821832481</v>
       </c>
       <c r="D97">
-        <v>-0.02213740916398025</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02641318869126413</v>
+      </c>
+      <c r="E97">
+        <v>0.02582027109408866</v>
+      </c>
+      <c r="F97">
+        <v>0.1802175853539342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1948413361843053</v>
+        <v>0.2015513763820028</v>
       </c>
       <c r="C98">
-        <v>-0.01781517677438177</v>
+        <v>0.01267110889265766</v>
       </c>
       <c r="D98">
-        <v>0.008901906313165992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01153881814812834</v>
+      </c>
+      <c r="E98">
+        <v>-0.09182607081334028</v>
+      </c>
+      <c r="F98">
+        <v>0.07250040351320865</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05675086765623066</v>
+        <v>0.05674982104629817</v>
       </c>
       <c r="C99">
-        <v>0.0003055027226629889</v>
+        <v>-0.002399290445629596</v>
       </c>
       <c r="D99">
-        <v>0.04452618979851745</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.0494857397268304</v>
+      </c>
+      <c r="E99">
+        <v>0.02802699367739726</v>
+      </c>
+      <c r="F99">
+        <v>0.005414132253505807</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1424523434367251</v>
+        <v>0.1323568566998232</v>
       </c>
       <c r="C100">
-        <v>0.03429238648197379</v>
+        <v>-0.04332766847272224</v>
       </c>
       <c r="D100">
-        <v>0.4122697334194322</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3727717877825654</v>
+      </c>
+      <c r="E100">
+        <v>-0.8860049757868664</v>
+      </c>
+      <c r="F100">
+        <v>0.02778614586912157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02589545427984698</v>
+        <v>0.02802265769215357</v>
       </c>
       <c r="C101">
-        <v>-0.009851831270886785</v>
+        <v>0.009201998924082022</v>
       </c>
       <c r="D101">
-        <v>0.03506833844300185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03688064767007701</v>
+      </c>
+      <c r="E101">
+        <v>0.01571932825878931</v>
+      </c>
+      <c r="F101">
+        <v>0.01902494249964717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
